--- a/hes/FOR001-AUTOEVALUATION BESST.xlsx
+++ b/hes/FOR001-AUTOEVALUATION BESST.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t xml:space="preserve">Référentiel de compétences BESST : Bases essentielles en Santé et Sécurité au travail</t>
   </si>
@@ -120,10 +120,10 @@
     <t xml:space="preserve">Définition des AT et des MP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Quelques notions et enjeux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mot clé : travail, maladie professionnel  accident de travail, accident de trajet, </t>
+    <t xml:space="preserve"> Quelques notions et enjeux. Quelques notions et enjeux SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mot clé : travail, maladie professionnel , accident de trajet,  accident du travail : L’existence d’un fait ayant entrainé une lésion immédiate ou différée (notion d’accident)- L’accident a eu lieu à l’occasion ou par le fait du travail.</t>
   </si>
   <si>
     <t xml:space="preserve">Statistiques générales des AT et MP</t>
@@ -141,6 +141,12 @@
     <t xml:space="preserve">Coûts directs et indirects</t>
   </si>
   <si>
+    <t xml:space="preserve">Liv 002 – partie 2 Droit et devoir V1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotisation assuranc emaladie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Observation  de la santé, sources d’information et liens avec le travail</t>
   </si>
   <si>
@@ -162,10 +168,13 @@
     <t xml:space="preserve">Vidéo responsabilité civil et pénal</t>
   </si>
   <si>
-    <t xml:space="preserve">la responsabilité pénale concerne tout le monde</t>
+    <t xml:space="preserve">La responsabilité civil permet d’être indémnisé en cas d’accident / maladie = domage et intérêt. L’entreprise est reponsable des employé. . la responsabilité pénale concerne tout le monde</t>
   </si>
   <si>
     <t xml:space="preserve">Délégation de pouvoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celui qui reçoit la délégation de pouvoir a la responsabilité civil, autrement dit il est responsable de ceux qu’il encadre et son supérieur n’a plus cette responsabilité</t>
   </si>
   <si>
     <t xml:space="preserve">Communiquer avec les acteurs de prévention internes et externes</t>
@@ -274,7 +283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -390,6 +399,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -578,7 +593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -696,6 +711,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,15 +915,15 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C10" colorId="64" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.9"/>
   </cols>
   <sheetData>
@@ -1145,27 +1164,33 @@
       <c r="D7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="28" t="n">
+        <v>3</v>
+      </c>
       <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
+      <c r="N7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="n">
@@ -1174,7 +1199,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -1203,11 +1228,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>30</v>
+      <c r="C9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -1236,9 +1261,9 @@
         <v>7</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31" t="s">
-        <v>31</v>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -1267,9 +1292,9 @@
         <v>8</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
-        <v>32</v>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -1298,12 +1323,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31" t="s">
-        <v>33</v>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -1312,11 +1337,11 @@
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -1335,20 +1360,26 @@
         <v>10</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="28" t="n">
+        <v>4</v>
+      </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
@@ -1366,11 +1397,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="32" t="s">
-        <v>37</v>
+      <c r="C14" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -1395,13 +1426,13 @@
       <c r="Y14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
+      <c r="A15" s="34" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -1426,17 +1457,17 @@
       <c r="Y15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
+      <c r="A16" s="35" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>42</v>
+      <c r="B16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -1464,10 +1495,10 @@
       <c r="A17" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31" t="s">
-        <v>43</v>
+      <c r="B17" s="36"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -1495,10 +1526,10 @@
       <c r="A18" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31" t="s">
-        <v>44</v>
+      <c r="B18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -1526,12 +1557,12 @@
       <c r="A19" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="32" t="s">
-        <v>45</v>
+      <c r="B19" s="36"/>
+      <c r="C19" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -1559,10 +1590,10 @@
       <c r="A20" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -1590,10 +1621,10 @@
       <c r="A21" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -1621,10 +1652,10 @@
       <c r="A22" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -1652,12 +1683,12 @@
       <c r="A23" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>51</v>
+      <c r="B23" s="36"/>
+      <c r="C23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -1682,13 +1713,13 @@
       <c r="Y23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="n">
+      <c r="A24" s="34" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31" t="s">
-        <v>52</v>
+      <c r="B24" s="36"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -1713,17 +1744,17 @@
       <c r="Y24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="n">
+      <c r="A25" s="35" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>54</v>
+      <c r="B25" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -1751,10 +1782,10 @@
       <c r="A26" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -1782,10 +1813,10 @@
       <c r="A27" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -1813,10 +1844,10 @@
       <c r="A28" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -1844,10 +1875,10 @@
       <c r="A29" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -1875,12 +1906,12 @@
       <c r="A30" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>61</v>
+      <c r="B30" s="36"/>
+      <c r="C30" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
@@ -1908,10 +1939,10 @@
       <c r="A31" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31" t="s">
-        <v>62</v>
+      <c r="B31" s="36"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -1939,10 +1970,10 @@
       <c r="A32" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31" t="s">
-        <v>63</v>
+      <c r="B32" s="36"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -1970,10 +2001,10 @@
       <c r="A33" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31" t="s">
-        <v>64</v>
+      <c r="B33" s="36"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -2001,10 +2032,10 @@
       <c r="A34" s="24" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31" t="s">
-        <v>65</v>
+      <c r="B34" s="36"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
@@ -2032,10 +2063,10 @@
       <c r="A35" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31" t="s">
-        <v>66</v>
+      <c r="B35" s="36"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
@@ -2060,13 +2091,13 @@
       <c r="Y35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="n">
+      <c r="A36" s="34" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31" t="s">
-        <v>67</v>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
@@ -2321,35 +2352,35 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.734375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.671875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>68</v>
+      <c r="A1" s="37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="n">
+      <c r="A2" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="n">
+      <c r="A3" s="38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="n">
+      <c r="A4" s="38" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="n">
+      <c r="A5" s="38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="n">
+      <c r="A6" s="38" t="n">
         <v>4</v>
       </c>
     </row>
